--- a/AHome/15.02/Taxi/Taxi.xlsx
+++ b/AHome/15.02/Taxi/Taxi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,118 +19,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
-  <si>
-    <t>Client_Main</t>
-  </si>
-  <si>
-    <t>Client_Registration</t>
-  </si>
-  <si>
-    <t>Client_Profile</t>
-  </si>
-  <si>
-    <t>Client_Order Form</t>
-  </si>
-  <si>
-    <t>Driver_Main</t>
-  </si>
-  <si>
-    <t>Driver_Registration</t>
-  </si>
-  <si>
-    <t>Driver_Profile</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Order_PickUpPoint</t>
-  </si>
-  <si>
-    <t>Order_DestinationPoint</t>
-  </si>
-  <si>
-    <t>Order_Driver</t>
-  </si>
-  <si>
-    <t>Order_AwatingTime</t>
-  </si>
-  <si>
-    <t>Order_Price</t>
-  </si>
-  <si>
-    <t>Driver_Answer</t>
-  </si>
-  <si>
-    <t>Order_Complete</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>Driver_CardNumber</t>
-  </si>
-  <si>
-    <t>Order_VehicleType</t>
-  </si>
-  <si>
-    <t>Driver_PaymentForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    Form                   Field</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>List of Drivers</t>
-  </si>
-  <si>
-    <t>Order_Discount</t>
-  </si>
-  <si>
-    <t>Order_Vehicle</t>
-  </si>
-  <si>
-    <t>Decline</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>Payement request</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Ban_msg</t>
-  </si>
-  <si>
-    <t>Driver_OrderForm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">                                    User                   Module</t>
+  </si>
+  <si>
+    <t>Unregistered User</t>
+  </si>
+  <si>
+    <t>Registered User</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Order formalization</t>
+  </si>
+  <si>
+    <t>Process order</t>
+  </si>
+  <si>
+    <t>View/Edit profile</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module: Authentication </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>RUD</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Read</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,7 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -312,15 +261,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,6 +300,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -469,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -644,17 +594,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -665,194 +615,164 @@
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19">
-      <c r="B3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="14"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="2:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17"/>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -863,144 +783,104 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="15" t="s">
-        <v>10</v>
-      </c>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="15" t="s">
-        <v>11</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="15" t="s">
-        <v>12</v>
-      </c>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="15" t="s">
-        <v>13</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1008,15 +888,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1024,50 +900,52 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1075,13 +953,15 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1089,23 +969,27 @@
       <c r="J26" s="4"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1116,7 +1000,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1129,6 +1013,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:B4"/>
@@ -1136,17 +1031,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1154,12 +1038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1167,12 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
